--- a/Dev-note.xlsx
+++ b/Dev-note.xlsx
@@ -39,9 +39,6 @@
     <t>Theme</t>
   </si>
   <si>
-    <t>Contents in some pages</t>
-  </si>
-  <si>
     <t>Official open</t>
   </si>
   <si>
@@ -81,7 +78,10 @@
     <t>Upgrade posting system (comments, share)</t>
   </si>
   <si>
-    <t>Contents in index.html + Logo</t>
+    <t>Contents in some pages + Logo</t>
+  </si>
+  <si>
+    <t>Contents in index.html</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,11 +125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,22 +152,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,7 +446,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,23 +492,24 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -531,7 +517,7 @@
         <v>0.8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -539,7 +525,7 @@
         <v>0.9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -547,45 +533,45 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -593,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -602,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
